--- a/Prototype/QASet.xlsx
+++ b/Prototype/QASet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzf/Programming/Jupyter/Fintech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7706AD-3F67-054C-BF85-D1B82933C70F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E6832-2867-6842-9985-114FD6DE8C11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16200" xr2:uid="{B097E7E4-0C76-2144-8987-00C76BC3F923}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>stage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>conflict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jump</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,34 +55,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年齡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情感狀況</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通勤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外食or家裡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,31 +75,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>餐館or夜市or超商or公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家裡吃得豐盛or簡單</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>question</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"answer":["豐盛","簡單"],"rank":[1,2]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"answer":["外食","家裡"],"jump":["2.3.1","2.4.1"]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>覺得如何</t>
+    <t>rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"answer":["A","B"],"jump":["2.3.1","2.4.1"]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"nlp":[False],"check":["null"]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"nlp":[False],"check":["1.2.1,1.3.1,sum,=,100"]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"answer":["A","B"],"rank":[1,2],"response":["C","D"]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"answer":["30","70"],"rank":[1,2],"response":["C","D"]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"answer":["70","30"],"rank":[1,2],"response":["C","D"]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +164,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -170,8 +198,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,14 +522,17 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="4" width="27.83203125" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="65" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,16 +547,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -533,10 +567,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -547,10 +590,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -561,10 +613,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -575,10 +636,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -589,13 +659,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -606,13 +682,19 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -623,16 +705,19 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -643,10 +728,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
